--- a/metamodel_py/tests/qs2_files/Example_C/Data/inputs/Model_Parameters.xlsx
+++ b/metamodel_py/tests/qs2_files/Example_C/Data/inputs/Model_Parameters.xlsx
@@ -1,36 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RDR\quick_starts\qs2_analysis_run\Example_C\Data\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\RDR\metamodel_py\tests\qs2_files\Example_C\Data\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8A63D-0382-4B51-970C-935B6E817B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E660BF01-6866-4977-ACCD-287CF088DF4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35370" yWindow="3780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UncertaintyParameters" sheetId="1" r:id="rId1"/>
-    <sheet name="ProjectGroups" sheetId="3" r:id="rId2"/>
-    <sheet name="Hazards" sheetId="2" r:id="rId3"/>
+    <sheet name="Instructions" sheetId="7" r:id="rId1"/>
+    <sheet name="EconomicScenarios" sheetId="1" r:id="rId2"/>
+    <sheet name="Elasticities" sheetId="4" r:id="rId3"/>
+    <sheet name="ProjectGroups" sheetId="3" r:id="rId4"/>
+    <sheet name="Hazards" sheetId="2" r:id="rId5"/>
+    <sheet name="RecoveryStages" sheetId="5" r:id="rId6"/>
+    <sheet name="FrequencyFactors" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
-  <si>
-    <t>Resiliency Projects</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Project Groups</t>
   </si>
@@ -44,9 +56,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Hazard Events</t>
-  </si>
-  <si>
     <t>Recovery Stages</t>
   </si>
   <si>
@@ -90,13 +99,191 @@
   </si>
   <si>
     <t>L8-9_part</t>
+  </si>
+  <si>
+    <t>Event Frequency Factors</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>1. EconomicScenarios sheet</t>
+  </si>
+  <si>
+    <t>2. Elasticities sheet</t>
+  </si>
+  <si>
+    <t>3. ProjectGroups sheet</t>
+  </si>
+  <si>
+    <t>4. Hazards sheet</t>
+  </si>
+  <si>
+    <t>5. RecoveryStages sheet</t>
+  </si>
+  <si>
+    <t>6. FrequencyFactors sheet</t>
+  </si>
+  <si>
+    <t>Project ID</t>
+  </si>
+  <si>
+    <r>
+      <t>Visit each of the remaining sheets of this file and update/input information as required for your desired RDR run.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Enter one value per cell - use as many rows as needed. Additional information on each sheet is below and even more explanation is in the User Guide at https://github.com/VolpeUSDOT/RDR-Public/blob/main/documentation/RDR_UserGuide_final.pdf.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter name(s) of the possible future economic scenario(s). These should correspond to the filenames for your input trip table demand file(s) (in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input folder path&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\AEMaster\matrices) and network link attribute file(s) (in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input folder path&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Networks), as described in the RDR documentation.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter one or more decimal values (less than or equal to 0) quantifying the change in trip demand due to increased travel time. The core model will use these 'Trip Loss Elasticities'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In the 'Project ID' column, list the potential resilience projects to analyze. All entries in this column will need to have a corresponding entry or entries in the 'Project ID' column within the 'project_table.csv' and 'project_info.csv' input files (in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input folder path&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">\LookupTables).
+In the 'Project Groups' column, identify which potential resilience projects should be grouped together with the same no-action baseline by assigning them the same 'Project Group' label. The 'Project Group' label should correspond to the filename(s) for network link attribute file(s) (in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input folder path&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Networks), as described in the RDR documentation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The "Hazards" tab has five required columns:
+1. 'Hazard Event' should have one or more label(s) naming possible hazard event(s).
+2. 'Filename' should have the corresponding filename(s) (without the implied ".csv" file type extension) for each hazard event's exposure analysis file (in </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;input folder path&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Networks).
+3. 'HazardDim1' are label(s) describing the short-term dimension of each hazard event, used for filtering results (e.g., '100' for 100-year storm surge for a flooding event).
+4. 'HazardDim2' are label(s) describing the long-term dimension of each hazard event, used for filtering results (e.g., '3' for 3-foot sea-level rise for a flooding event).
+5. 'Event Probability in Start Year' are numeric annual probabilities of each hazard event occurring. Note that the hazard event probabilities are specified for the start year of the analysis period, not the base year. For scenarios running Benefit-Cost Analysis under Uncertainty (BCA-U), all probabilities should be set to 1.
+The 'Hazard Event' and 'Filename' fields are used in the 'recov_init' module, while the 'recov_calc' module uses all fields.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter non-negative integers starting from 0 (indicating initial hazard event severity) that enumerate the potential hazard recovery stages during a hazard event. The stages represent levels of receding exposure a hazard event may pass through during the hazard exposure period from initial hazard severity to end of the hazard event (i.e., larger integers represent further recession).</t>
+  </si>
+  <si>
+    <t>Enter one or more number(s) defining how the probability of all hazard event(s) will increase or decrease year-on-year throughout the analysis period. A value of 1 means no change across years in hazard event probability values; a value above 1 means an increase in frequency over time; a value below 1 means a decrease in frequency over time.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,16 +299,92 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,17 +392,71 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,186 +734,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980BA6F0-9E6A-482B-9FFA-490A5D80E816}">
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="120.6640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+    </row>
+    <row r="18" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+    </row>
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -605,48 +1229,145 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E786500F-137C-4213-8AE4-EF7CFCEE0525}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>-1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -655,18 +1376,18 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -675,10 +1396,72 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C588E99A-8A48-44AF-B1F4-30A0E9608FE6}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB785A0C-36B2-48EE-A500-AD859219BE5D}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.0009999999999999</v>
       </c>
     </row>
   </sheetData>
